--- a/data/trans_orig/P57_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA32FA17-5F8A-4A6B-881C-6AFDA71E0977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7229A4FD-A4DC-46D7-A26C-8D635DDA095F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{62EEB781-8669-4A6A-B8D7-3BDB5DEC131D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A0BBE854-A0DB-4131-A525-8D62C2C9934C}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="159">
   <si>
     <t>Población con felicidad &lt;= 6 (Likert 0 a 10) en 2015 (Tasa respuesta: 99,57%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>30,25%</t>
   </si>
   <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
   </si>
   <si>
     <t>39,01%</t>
   </si>
   <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
   </si>
   <si>
     <t>35,23%</t>
   </si>
   <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>69,75%</t>
   </si>
   <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
   </si>
   <si>
     <t>60,99%</t>
   </si>
   <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
   </si>
   <si>
     <t>64,77%</t>
   </si>
   <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>16,18%</t>
   </si>
   <si>
-    <t>14,54%</t>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
   </si>
   <si>
     <t>17,88%</t>
   </si>
   <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
+    <t>21,42%</t>
   </si>
   <si>
     <t>17,84%</t>
   </si>
   <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
   </si>
   <si>
     <t>83,82%</t>
   </si>
   <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
     <t>82,12%</t>
   </si>
   <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
     <t>82,16%</t>
   </si>
   <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -195,109 +195,109 @@
     <t>11,23%</t>
   </si>
   <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
   </si>
   <si>
     <t>9,09%</t>
   </si>
   <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
   </si>
   <si>
     <t>10,16%</t>
   </si>
   <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
   </si>
   <si>
     <t>88,77%</t>
   </si>
   <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
   </si>
   <si>
     <t>90,91%</t>
   </si>
   <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
   </si>
   <si>
     <t>89,84%</t>
   </si>
   <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
   </si>
   <si>
     <t>18,53%</t>
   </si>
   <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
   </si>
   <si>
     <t>23,42%</t>
   </si>
   <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
   </si>
   <si>
     <t>21,03%</t>
   </si>
   <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
   </si>
   <si>
     <t>81,47%</t>
   </si>
   <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
   </si>
   <si>
     <t>76,58%</t>
   </si>
   <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
   </si>
   <si>
     <t>78,97%</t>
   </si>
   <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -426,9 +426,6 @@
     <t>8,5%</t>
   </si>
   <si>
-    <t>6,81%</t>
-  </si>
-  <si>
     <t>10,65%</t>
   </si>
   <si>
@@ -454,9 +451,6 @@
   </si>
   <si>
     <t>89,35%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
   </si>
   <si>
     <t>91,26%</t>
@@ -931,7 +925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A51A07-C642-47CF-9473-937346ABA780}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BCEB30E-DAB9-47CC-85C0-6B4441B272CB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1682,7 +1676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C97E3CBB-3358-45F3-815C-B27322CA6859}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86BFB994-886E-4705-81EC-2C463AF27160}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2134,10 +2128,10 @@
         <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>151</v>
@@ -2146,13 +2140,13 @@
         <v>120925</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2167,13 +2161,13 @@
         <v>611905</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>914</v>
@@ -2182,13 +2176,13 @@
         <v>651083</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>138</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1530</v>
@@ -2197,13 +2191,13 @@
         <v>1262988</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2271,13 +2265,13 @@
         <v>461962</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>1017</v>
@@ -2286,13 +2280,13 @@
         <v>640436</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>1571</v>
@@ -2301,13 +2295,13 @@
         <v>1102398</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2322,13 +2316,13 @@
         <v>2903680</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>4297</v>
@@ -2337,13 +2331,13 @@
         <v>3135818</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>7094</v>
@@ -2352,13 +2346,13 @@
         <v>6039498</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P57_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57_R-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7229A4FD-A4DC-46D7-A26C-8D635DDA095F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BC80AA8-6760-44C8-AF80-0B634F6B6119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A0BBE854-A0DB-4131-A525-8D62C2C9934C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1451E411-D4CC-4710-A6C9-277AC9B502E3}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="159">
-  <si>
-    <t>Población con felicidad &lt;= 6 (Likert 0 a 10) en 2015 (Tasa respuesta: 99,57%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="161">
+  <si>
+    <t>Población con felicidad &lt;= 6 (Likert 0 a 10) en 2016 (Tasa respuesta: 99,57%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -75,28 +75,28 @@
     <t>30,25%</t>
   </si>
   <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
   </si>
   <si>
     <t>39,01%</t>
   </si>
   <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
   </si>
   <si>
     <t>35,23%</t>
   </si>
   <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>69,75%</t>
   </si>
   <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
   </si>
   <si>
     <t>60,99%</t>
   </si>
   <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
   </si>
   <si>
     <t>64,77%</t>
   </si>
   <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>16,18%</t>
   </si>
   <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
   </si>
   <si>
     <t>19,56%</t>
   </si>
   <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
   </si>
   <si>
     <t>17,84%</t>
   </si>
   <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
   </si>
   <si>
     <t>83,82%</t>
   </si>
   <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
   </si>
   <si>
     <t>80,44%</t>
   </si>
   <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
   </si>
   <si>
     <t>82,16%</t>
   </si>
   <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -195,79 +195,79 @@
     <t>11,23%</t>
   </si>
   <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
   </si>
   <si>
     <t>9,09%</t>
   </si>
   <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
   </si>
   <si>
     <t>10,16%</t>
   </si>
   <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
   </si>
   <si>
     <t>88,77%</t>
   </si>
   <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
   </si>
   <si>
     <t>90,91%</t>
   </si>
   <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
   </si>
   <si>
     <t>89,84%</t>
   </si>
   <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
   </si>
   <si>
     <t>18,53%</t>
   </si>
   <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
   </si>
   <si>
     <t>23,42%</t>
   </si>
   <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
   </si>
   <si>
     <t>21,03%</t>
   </si>
   <si>
-    <t>20,03%</t>
+    <t>20,05%</t>
   </si>
   <si>
     <t>22,02%</t>
@@ -276,19 +276,19 @@
     <t>81,47%</t>
   </si>
   <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
   </si>
   <si>
     <t>76,58%</t>
   </si>
   <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
   </si>
   <si>
     <t>78,97%</t>
@@ -297,7 +297,7 @@
     <t>77,98%</t>
   </si>
   <si>
-    <t>79,97%</t>
+    <t>79,95%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -309,211 +309,217 @@
     <t>29,94%</t>
   </si>
   <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
   </si>
   <si>
     <t>37,07%</t>
   </si>
   <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
   </si>
   <si>
     <t>34,27%</t>
   </si>
   <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
   </si>
   <si>
     <t>70,06%</t>
   </si>
   <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
   </si>
   <si>
     <t>62,93%</t>
   </si>
   <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
   </si>
   <si>
     <t>65,73%</t>
   </si>
   <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
   </si>
   <si>
     <t>11,2%</t>
   </si>
   <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
   </si>
   <si>
     <t>12,27%</t>
   </si>
   <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
   </si>
   <si>
     <t>11,74%</t>
   </si>
   <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
   </si>
   <si>
     <t>88,8%</t>
   </si>
   <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
   </si>
   <si>
     <t>87,73%</t>
   </si>
   <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
   </si>
   <si>
     <t>88,26%</t>
   </si>
   <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
   </si>
   <si>
     <t>8,99%</t>
   </si>
   <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
   </si>
   <si>
     <t>8,5%</t>
   </si>
   <si>
-    <t>10,65%</t>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
   </si>
   <si>
     <t>8,74%</t>
   </si>
   <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
   </si>
   <si>
     <t>91,01%</t>
   </si>
   <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
   </si>
   <si>
     <t>91,5%</t>
   </si>
   <si>
-    <t>89,35%</t>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
   </si>
   <si>
     <t>91,26%</t>
   </si>
   <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
   </si>
   <si>
     <t>13,73%</t>
   </si>
   <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
   </si>
   <si>
     <t>16,96%</t>
   </si>
   <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
   </si>
   <si>
     <t>15,44%</t>
   </si>
   <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
   </si>
   <si>
     <t>86,27%</t>
   </si>
   <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
   </si>
   <si>
     <t>83,04%</t>
   </si>
   <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
   </si>
   <si>
     <t>84,56%</t>
   </si>
   <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
   </si>
 </sst>
 </file>
@@ -925,7 +931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BCEB30E-DAB9-47CC-85C0-6B4441B272CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01AF79F6-8E68-4478-87F6-83E04780E334}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1592,7 +1598,7 @@
         <v>5172</v>
       </c>
       <c r="N14" s="7">
-        <v>5433042</v>
+        <v>5433043</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -1643,7 +1649,7 @@
         <v>6513</v>
       </c>
       <c r="N15" s="7">
-        <v>6879662</v>
+        <v>6879663</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1676,7 +1682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86BFB994-886E-4705-81EC-2C463AF27160}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F2539B-2812-432A-81FA-B2F948B55932}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2033,7 +2039,7 @@
         <v>4224</v>
       </c>
       <c r="N8" s="7">
-        <v>3885278</v>
+        <v>3885277</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>122</v>
@@ -2084,7 +2090,7 @@
         <v>4901</v>
       </c>
       <c r="N9" s="7">
-        <v>4402168</v>
+        <v>4402167</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2128,10 +2134,10 @@
         <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>151</v>
@@ -2140,13 +2146,13 @@
         <v>120925</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2161,13 +2167,13 @@
         <v>611905</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>914</v>
@@ -2176,13 +2182,13 @@
         <v>651083</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>1530</v>
@@ -2191,13 +2197,13 @@
         <v>1262988</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2265,13 +2271,13 @@
         <v>461962</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>1017</v>
@@ -2280,13 +2286,13 @@
         <v>640436</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>1571</v>
@@ -2295,13 +2301,13 @@
         <v>1102398</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2316,13 +2322,13 @@
         <v>2903680</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>4297</v>
@@ -2331,13 +2337,13 @@
         <v>3135818</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>7094</v>
@@ -2346,13 +2352,13 @@
         <v>6039498</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P57_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BC80AA8-6760-44C8-AF80-0B634F6B6119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69FF6088-EDB7-4B69-A855-CCCF60CCE7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1451E411-D4CC-4710-A6C9-277AC9B502E3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D5EF3764-D91A-4552-B68A-6BA30B0E6BD4}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="161">
   <si>
-    <t>Población con felicidad &lt;= 6 (Likert 0 a 10) en 2016 (Tasa respuesta: 99,57%)</t>
+    <t>Población con autopercepción de la felicidad &lt;= 6 (Likert 0 a 10) en 2016 (Tasa respuesta: 99,57%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -75,28 +75,28 @@
     <t>30,25%</t>
   </si>
   <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
   </si>
   <si>
     <t>39,01%</t>
   </si>
   <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
   </si>
   <si>
     <t>35,23%</t>
   </si>
   <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>69,75%</t>
   </si>
   <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
   </si>
   <si>
     <t>60,99%</t>
   </si>
   <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
   </si>
   <si>
     <t>64,77%</t>
   </si>
   <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>16,18%</t>
   </si>
   <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
   </si>
   <si>
     <t>19,56%</t>
   </si>
   <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
   </si>
   <si>
     <t>17,84%</t>
   </si>
   <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
   </si>
   <si>
     <t>83,82%</t>
   </si>
   <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
   </si>
   <si>
     <t>80,44%</t>
   </si>
   <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
   </si>
   <si>
     <t>82,16%</t>
   </si>
   <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -195,331 +195,331 @@
     <t>11,23%</t>
   </si>
   <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
   </si>
   <si>
     <t>9,09%</t>
   </si>
   <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
   </si>
   <si>
     <t>10,16%</t>
   </si>
   <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
   </si>
   <si>
     <t>88,77%</t>
   </si>
   <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
   </si>
   <si>
     <t>90,91%</t>
   </si>
   <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
   </si>
   <si>
     <t>89,84%</t>
   </si>
   <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
   </si>
   <si>
     <t>18,53%</t>
   </si>
   <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
   </si>
   <si>
     <t>23,42%</t>
   </si>
   <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
   </si>
   <si>
     <t>21,03%</t>
   </si>
   <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
   </si>
   <si>
     <t>81,47%</t>
   </si>
   <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
   </si>
   <si>
     <t>76,58%</t>
   </si>
   <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
   </si>
   <si>
     <t>78,97%</t>
   </si>
   <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población con felicidad &lt;= 6 (Likert 0 a 10) en 2023 (Tasa respuesta: 99,36%)</t>
+    <t>Población con autopercepción de la felicidad &lt;= 6 (Likert 0 a 10) en 2023 (Tasa respuesta: 99,36%)</t>
   </si>
   <si>
     <t>29,94%</t>
   </si>
   <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
   </si>
   <si>
     <t>37,07%</t>
   </si>
   <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
   </si>
   <si>
     <t>34,27%</t>
   </si>
   <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
   </si>
   <si>
     <t>70,06%</t>
   </si>
   <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
   </si>
   <si>
     <t>62,93%</t>
   </si>
   <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
   </si>
   <si>
     <t>65,73%</t>
   </si>
   <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
   </si>
   <si>
     <t>11,2%</t>
   </si>
   <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
   </si>
   <si>
     <t>12,27%</t>
   </si>
   <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
   </si>
   <si>
     <t>11,74%</t>
   </si>
   <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
   </si>
   <si>
     <t>88,8%</t>
   </si>
   <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
   </si>
   <si>
     <t>87,73%</t>
   </si>
   <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
   </si>
   <si>
     <t>88,26%</t>
   </si>
   <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
   </si>
   <si>
     <t>8,99%</t>
   </si>
   <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
   </si>
   <si>
     <t>8,5%</t>
   </si>
   <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
   </si>
   <si>
     <t>8,74%</t>
   </si>
   <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
   </si>
   <si>
     <t>91,01%</t>
   </si>
   <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
   </si>
   <si>
     <t>91,5%</t>
   </si>
   <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
   </si>
   <si>
     <t>91,26%</t>
   </si>
   <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
   </si>
   <si>
     <t>13,73%</t>
   </si>
   <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
   </si>
   <si>
     <t>16,96%</t>
   </si>
   <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
   </si>
   <si>
     <t>15,44%</t>
   </si>
   <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
   </si>
   <si>
     <t>86,27%</t>
   </si>
   <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
   </si>
   <si>
     <t>83,04%</t>
   </si>
   <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
   </si>
   <si>
     <t>84,56%</t>
   </si>
   <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
   </si>
 </sst>
 </file>
@@ -931,7 +931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01AF79F6-8E68-4478-87F6-83E04780E334}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84029D0D-B5D8-4AE0-B578-91937CCA37F2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1598,7 +1598,7 @@
         <v>5172</v>
       </c>
       <c r="N14" s="7">
-        <v>5433043</v>
+        <v>5433042</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -1649,7 +1649,7 @@
         <v>6513</v>
       </c>
       <c r="N15" s="7">
-        <v>6879663</v>
+        <v>6879662</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1682,7 +1682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F2539B-2812-432A-81FA-B2F948B55932}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C94349-C457-4D6E-BD46-31435649FB4C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2039,7 +2039,7 @@
         <v>4224</v>
       </c>
       <c r="N8" s="7">
-        <v>3885277</v>
+        <v>3885278</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>122</v>
@@ -2090,7 +2090,7 @@
         <v>4901</v>
       </c>
       <c r="N9" s="7">
-        <v>4402167</v>
+        <v>4402168</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P57_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69FF6088-EDB7-4B69-A855-CCCF60CCE7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CD5D1C0-3FE7-4348-BCA0-16C4E8612AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D5EF3764-D91A-4552-B68A-6BA30B0E6BD4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{07CE1867-E388-434C-91D2-BA227FEF1EB3}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="161">
-  <si>
-    <t>Población con autopercepción de la felicidad &lt;= 6 (Likert 0 a 10) en 2016 (Tasa respuesta: 99,57%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="159">
+  <si>
+    <t>Población con autopercepción de la felicidad menor o igual a 6 (Likert 0 a 10) en 2016 (Tasa respuesta: 99,57%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -303,223 +303,217 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población con autopercepción de la felicidad &lt;= 6 (Likert 0 a 10) en 2023 (Tasa respuesta: 99,36%)</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
+    <t>Población con autopercepción de la felicidad menor o igual a 6 (Likert 0 a 10) en 2023 (Tasa respuesta: 99,36%)</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
   </si>
 </sst>
 </file>
@@ -931,7 +925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84029D0D-B5D8-4AE0-B578-91937CCA37F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612BA7F6-0042-4B1A-AD79-A41B3EEF6484}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1682,7 +1676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C94349-C457-4D6E-BD46-31435649FB4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9881444-1FE3-4A48-8AC9-61512971E4E4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1803,7 +1797,7 @@
         <v>218</v>
       </c>
       <c r="D4" s="7">
-        <v>159703</v>
+        <v>148042</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>89</v>
@@ -1818,7 +1812,7 @@
         <v>525</v>
       </c>
       <c r="I4" s="7">
-        <v>304880</v>
+        <v>269794</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>92</v>
@@ -1833,7 +1827,7 @@
         <v>743</v>
       </c>
       <c r="N4" s="7">
-        <v>464583</v>
+        <v>417836</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>95</v>
@@ -1854,7 +1848,7 @@
         <v>463</v>
       </c>
       <c r="D5" s="7">
-        <v>373701</v>
+        <v>359314</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>98</v>
@@ -1869,7 +1863,7 @@
         <v>877</v>
       </c>
       <c r="I5" s="7">
-        <v>517532</v>
+        <v>473369</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>101</v>
@@ -1884,7 +1878,7 @@
         <v>1340</v>
       </c>
       <c r="N5" s="7">
-        <v>891233</v>
+        <v>832684</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>104</v>
@@ -1905,7 +1899,7 @@
         <v>681</v>
       </c>
       <c r="D6" s="7">
-        <v>533404</v>
+        <v>507356</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1920,7 +1914,7 @@
         <v>1402</v>
       </c>
       <c r="I6" s="7">
-        <v>822412</v>
+        <v>743163</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1935,7 +1929,7 @@
         <v>2083</v>
       </c>
       <c r="N6" s="7">
-        <v>1355816</v>
+        <v>1250520</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1958,7 +1952,7 @@
         <v>272</v>
       </c>
       <c r="D7" s="7">
-        <v>241836</v>
+        <v>223482</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>107</v>
@@ -1973,7 +1967,7 @@
         <v>405</v>
       </c>
       <c r="I7" s="7">
-        <v>275055</v>
+        <v>245496</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>110</v>
@@ -1988,7 +1982,7 @@
         <v>677</v>
       </c>
       <c r="N7" s="7">
-        <v>516890</v>
+        <v>468977</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>113</v>
@@ -2009,7 +2003,7 @@
         <v>1718</v>
       </c>
       <c r="D8" s="7">
-        <v>1918074</v>
+        <v>2064863</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>116</v>
@@ -2024,7 +2018,7 @@
         <v>2506</v>
       </c>
       <c r="I8" s="7">
-        <v>1967203</v>
+        <v>1985709</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>119</v>
@@ -2039,7 +2033,7 @@
         <v>4224</v>
       </c>
       <c r="N8" s="7">
-        <v>3885278</v>
+        <v>4050574</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>122</v>
@@ -2060,7 +2054,7 @@
         <v>1990</v>
       </c>
       <c r="D9" s="7">
-        <v>2159910</v>
+        <v>2288345</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2075,7 +2069,7 @@
         <v>2911</v>
       </c>
       <c r="I9" s="7">
-        <v>2242258</v>
+        <v>2231205</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2090,7 +2084,7 @@
         <v>4901</v>
       </c>
       <c r="N9" s="7">
-        <v>4402168</v>
+        <v>4519551</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2113,7 +2107,7 @@
         <v>64</v>
       </c>
       <c r="D10" s="7">
-        <v>60423</v>
+        <v>57168</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>125</v>
@@ -2122,37 +2116,37 @@
         <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="H10" s="7">
         <v>87</v>
       </c>
       <c r="I10" s="7">
-        <v>60502</v>
+        <v>54613</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>151</v>
       </c>
       <c r="N10" s="7">
-        <v>120925</v>
+        <v>111782</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2164,46 +2158,46 @@
         <v>616</v>
       </c>
       <c r="D11" s="7">
-        <v>611905</v>
+        <v>588835</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>914</v>
       </c>
       <c r="I11" s="7">
-        <v>651083</v>
+        <v>603857</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>1530</v>
       </c>
       <c r="N11" s="7">
-        <v>1262988</v>
+        <v>1192692</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2215,7 +2209,7 @@
         <v>680</v>
       </c>
       <c r="D12" s="7">
-        <v>672328</v>
+        <v>646003</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2230,7 +2224,7 @@
         <v>1001</v>
       </c>
       <c r="I12" s="7">
-        <v>711585</v>
+        <v>658470</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2245,7 +2239,7 @@
         <v>1681</v>
       </c>
       <c r="N12" s="7">
-        <v>1383913</v>
+        <v>1304474</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2268,46 +2262,46 @@
         <v>554</v>
       </c>
       <c r="D13" s="7">
-        <v>461962</v>
+        <v>428692</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>1017</v>
       </c>
       <c r="I13" s="7">
-        <v>640436</v>
+        <v>569903</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>1571</v>
       </c>
       <c r="N13" s="7">
-        <v>1102398</v>
+        <v>998594</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2319,46 +2313,46 @@
         <v>2797</v>
       </c>
       <c r="D14" s="7">
-        <v>2903680</v>
+        <v>3013013</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>4297</v>
       </c>
       <c r="I14" s="7">
-        <v>3135818</v>
+        <v>3062936</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>7094</v>
       </c>
       <c r="N14" s="7">
-        <v>6039498</v>
+        <v>6075950</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2370,7 +2364,7 @@
         <v>3351</v>
       </c>
       <c r="D15" s="7">
-        <v>3365642</v>
+        <v>3441705</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2385,7 +2379,7 @@
         <v>5314</v>
       </c>
       <c r="I15" s="7">
-        <v>3776254</v>
+        <v>3632839</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2400,7 +2394,7 @@
         <v>8665</v>
       </c>
       <c r="N15" s="7">
-        <v>7141896</v>
+        <v>7074544</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
